--- a/ブログ登録_結合テスト.xlsx
+++ b/ブログ登録_結合テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C87C7BD-A61A-4149-82F9-1C6E84B3213E}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D6D9A58-D7FA-4305-A37E-F1B74EEF024C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="86">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -166,35 +166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.XAMPPのMySQLを停止の状態にする</t>
-    <rPh sb="14" eb="16">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント登録確認画面の「登録する」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
@@ -202,41 +173,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.アカウント登録確認画面の「登録する」ボタンを押す</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント登録完了画面に遷移する</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.「確認する」ボタンを押す</t>
     <rPh sb="3" eb="5">
       <t>カクニン</t>
@@ -257,25 +193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.アカウント登録完了画面に遷移して確認</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.他の項目も正しいで形式で入力する</t>
     <rPh sb="2" eb="3">
       <t>ホカ</t>
@@ -453,51 +370,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.アカウント登録完了画面の「アカウントへ」ボタンを押す</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント一覧画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント登録完了後、DBで確認</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.アカウント権限「一般」で、アクセスする</t>
     <rPh sb="7" eb="9">
       <t>ケンゲン</t>
@@ -1243,6 +1115,99 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ブログ登録完了画面の「ブログへ」ボタンを押す</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ブログ一覧画面に遷移</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ブログ登録完了後、DBで確認</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ブログ登録確認画面の「登録する」を押す</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.ブログ登録完了画面に遷移して確認</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2128,20 +2093,20 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2168,12 +2133,12 @@
         <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2214,19 +2179,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G8" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -2236,7 +2201,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2249,7 +2214,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2265,19 +2230,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G11" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -2287,7 +2252,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2300,7 +2265,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2316,19 +2281,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G14" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -2338,7 +2303,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2351,7 +2316,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2367,19 +2332,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G17" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2389,7 +2354,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2402,7 +2367,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2418,19 +2383,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G20" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2440,7 +2405,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2453,7 +2418,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2469,19 +2434,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G23" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -2491,7 +2456,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2507,19 +2472,19 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G25" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -2529,7 +2494,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2545,19 +2510,19 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G27" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -2590,7 +2555,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2601,20 +2566,20 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2641,12 +2606,12 @@
         <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2685,19 +2650,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G8" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -2707,7 +2672,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -2720,7 +2685,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2736,19 +2701,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G11" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -2758,7 +2723,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -2771,7 +2736,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2787,19 +2752,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="G14" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2809,7 +2774,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2825,19 +2790,19 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G16" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -2847,7 +2812,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2863,19 +2828,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G18" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -2899,19 +2864,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G20" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2942,8 +2907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="79" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2954,20 +2919,20 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2994,12 +2959,12 @@
         <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3040,19 +3005,19 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G9" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -3062,7 +3027,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3078,19 +3043,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G11" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -3100,7 +3065,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3116,19 +3081,19 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G13" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -3152,19 +3117,19 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G15" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -3174,7 +3139,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3190,19 +3155,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G17" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -3214,7 +3179,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3227,7 +3192,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3243,19 +3208,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G20" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -3265,7 +3230,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3278,7 +3243,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3294,19 +3259,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G23" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -3330,19 +3295,19 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G25" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -3365,19 +3330,19 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G27" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -3387,7 +3352,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
